--- a/biology/Zoologie/Heliconius_lalitae/Heliconius_lalitae.xlsx
+++ b/biology/Zoologie/Heliconius_lalitae/Heliconius_lalitae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius lalitae est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius lalitae a été décrit par Christian Brévignon en 1996[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius lalitae a été décrit par Christian Brévignon en 1996.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius lalitae se nomme  en anglais.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius lalitae est un très grand papillon aux ailes allongées et arrondies de couleur noire avec une partie basale rouge et, aux ailes antérieures, un groupe de grosses taches blanches entre l'apex noir uni et la partie basale rouge. L'autre face est ocre foncé suffusé de cuivré avec le même groupe de grosses taches blanches aux ailes antérieures.
 </t>
@@ -601,12 +619,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est présent qu'en Guyane.
+</t>
         </is>
       </c>
     </row>
@@ -636,9 +657,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il n'est présent qu'en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
 </t>
         </is>
       </c>
